--- a/data/Survey Data Analysis.xlsx
+++ b/data/Survey Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamden Chew\Desktop\School Work\Senior Year\Quarter 2\CSE 403\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160C12AF-5F5C-4228-BE4E-D936AC878EF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960FBF7-1ED0-47EA-A840-4A0690C7F607}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77A3A7D4-3AA6-4712-8ED6-7E459DD1EF7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t>Responses:</t>
   </si>
@@ -45,308 +45,341 @@
     <t>GitUp</t>
   </si>
   <si>
-    <t>Question 1</t>
-  </si>
-  <si>
-    <t>Question 2</t>
-  </si>
-  <si>
-    <t>Question 3</t>
-  </si>
-  <si>
-    <t>Question 4</t>
-  </si>
-  <si>
-    <t>Question 5</t>
-  </si>
-  <si>
-    <t>Question 6</t>
-  </si>
-  <si>
-    <t>Question 7</t>
-  </si>
-  <si>
-    <t>Question 8</t>
-  </si>
-  <si>
-    <t>Question 9</t>
-  </si>
-  <si>
-    <t>Question 10</t>
-  </si>
-  <si>
-    <t>Question 11</t>
-  </si>
-  <si>
-    <t>Question 12</t>
-  </si>
-  <si>
-    <t>Question 13</t>
-  </si>
-  <si>
-    <t>Question 14</t>
-  </si>
-  <si>
-    <t>Question 15</t>
-  </si>
-  <si>
-    <t>Question 16</t>
-  </si>
-  <si>
-    <t>Question 17</t>
-  </si>
-  <si>
-    <t>Question 18</t>
-  </si>
-  <si>
-    <t>Question 19</t>
-  </si>
-  <si>
-    <t>Question 20</t>
-  </si>
-  <si>
-    <t>Question 21</t>
-  </si>
-  <si>
-    <t>Question 22</t>
-  </si>
-  <si>
-    <t>Question 23</t>
-  </si>
-  <si>
-    <t>Question 24</t>
-  </si>
-  <si>
-    <t>Question 25</t>
-  </si>
-  <si>
-    <t>Question 26</t>
-  </si>
-  <si>
-    <t>Question 27</t>
-  </si>
-  <si>
-    <t>Question 28</t>
-  </si>
-  <si>
-    <t>Question 29</t>
-  </si>
-  <si>
-    <t>Question 30</t>
-  </si>
-  <si>
-    <t>Question 31</t>
-  </si>
-  <si>
-    <t>Question 32</t>
-  </si>
-  <si>
-    <t>Question 33</t>
-  </si>
-  <si>
-    <t>Question 34</t>
-  </si>
-  <si>
-    <t>Question 35</t>
-  </si>
-  <si>
-    <t>Question 36</t>
-  </si>
-  <si>
-    <t>Question 37</t>
-  </si>
-  <si>
-    <t>Question 38</t>
-  </si>
-  <si>
-    <t>Question 39</t>
-  </si>
-  <si>
-    <t>Question 40</t>
-  </si>
-  <si>
-    <t>Question 41</t>
-  </si>
-  <si>
-    <t>Question 42</t>
-  </si>
-  <si>
-    <t>Question 43</t>
-  </si>
-  <si>
-    <t>Question 44</t>
-  </si>
-  <si>
-    <t>Question 45</t>
-  </si>
-  <si>
-    <t>Question 46</t>
-  </si>
-  <si>
-    <t>Question 47</t>
-  </si>
-  <si>
-    <t>Question 48</t>
-  </si>
-  <si>
-    <t>Question 49</t>
-  </si>
-  <si>
-    <t>Question 50</t>
-  </si>
-  <si>
-    <t>Question 51</t>
-  </si>
-  <si>
-    <t>Question 52</t>
-  </si>
-  <si>
-    <t>Question 53</t>
-  </si>
-  <si>
-    <t>Question 54</t>
-  </si>
-  <si>
-    <t>Question 55</t>
-  </si>
-  <si>
-    <t>Question 56</t>
-  </si>
-  <si>
-    <t>Question 57</t>
-  </si>
-  <si>
-    <t>Question 58</t>
-  </si>
-  <si>
-    <t>Question 59</t>
-  </si>
-  <si>
-    <t>Question 60</t>
-  </si>
-  <si>
-    <t>Question 61</t>
-  </si>
-  <si>
-    <t>Question 62</t>
-  </si>
-  <si>
-    <t>Question 63</t>
-  </si>
-  <si>
-    <t>Question 64</t>
-  </si>
-  <si>
-    <t>Question 65</t>
-  </si>
-  <si>
-    <t>Question 66</t>
-  </si>
-  <si>
-    <t>Question 67</t>
-  </si>
-  <si>
-    <t>Question 68</t>
-  </si>
-  <si>
-    <t>Question 69</t>
-  </si>
-  <si>
-    <t>Question 70</t>
-  </si>
-  <si>
-    <t>Question 71</t>
-  </si>
-  <si>
-    <t>Question 72</t>
-  </si>
-  <si>
-    <t>Question 73</t>
-  </si>
-  <si>
-    <t>Question 74</t>
-  </si>
-  <si>
-    <t>Question 75</t>
-  </si>
-  <si>
-    <t>Question 76</t>
-  </si>
-  <si>
-    <t>Question 77</t>
-  </si>
-  <si>
-    <t>Question 78</t>
-  </si>
-  <si>
-    <t>Question 79</t>
-  </si>
-  <si>
-    <t>Question 80</t>
-  </si>
-  <si>
-    <t>Question 81</t>
-  </si>
-  <si>
-    <t>Question 82</t>
-  </si>
-  <si>
-    <t>Question 83</t>
-  </si>
-  <si>
-    <t>Question 84</t>
-  </si>
-  <si>
-    <t>Question 85</t>
-  </si>
-  <si>
-    <t>Question 86</t>
-  </si>
-  <si>
-    <t>Question 87</t>
-  </si>
-  <si>
-    <t>Question 88</t>
-  </si>
-  <si>
-    <t>Question 89</t>
-  </si>
-  <si>
-    <t>Question 90</t>
-  </si>
-  <si>
-    <t>Question 91</t>
-  </si>
-  <si>
-    <t>Question 92</t>
-  </si>
-  <si>
-    <t>Question 93</t>
-  </si>
-  <si>
-    <t>Question 94</t>
-  </si>
-  <si>
-    <t>Question 95</t>
-  </si>
-  <si>
-    <t>Question 96</t>
-  </si>
-  <si>
-    <t>Question 97</t>
-  </si>
-  <si>
-    <t>Question 98</t>
-  </si>
-  <si>
-    <t>Question 99</t>
+    <t>Git Tasks Completed</t>
+  </si>
+  <si>
+    <t>GitKraken Tasks Compelted</t>
+  </si>
+  <si>
+    <t>GitUp Tasks Completed</t>
+  </si>
+  <si>
+    <t>Responder 1</t>
+  </si>
+  <si>
+    <t>Responder 2</t>
+  </si>
+  <si>
+    <t>Responder 3</t>
+  </si>
+  <si>
+    <t>Responder 4</t>
+  </si>
+  <si>
+    <t>Responder 5</t>
+  </si>
+  <si>
+    <t>Responder 6</t>
+  </si>
+  <si>
+    <t>Responder 7</t>
+  </si>
+  <si>
+    <t>Responder 8</t>
+  </si>
+  <si>
+    <t>Responder 9</t>
+  </si>
+  <si>
+    <t>Responder 10</t>
+  </si>
+  <si>
+    <t>Responder 11</t>
+  </si>
+  <si>
+    <t>Responder 12</t>
+  </si>
+  <si>
+    <t>Responder 13</t>
+  </si>
+  <si>
+    <t>Responder 14</t>
+  </si>
+  <si>
+    <t>Responder 15</t>
+  </si>
+  <si>
+    <t>Responder 16</t>
+  </si>
+  <si>
+    <t>Responder 17</t>
+  </si>
+  <si>
+    <t>Responder 18</t>
+  </si>
+  <si>
+    <t>Responder 19</t>
+  </si>
+  <si>
+    <t>Responder 20</t>
+  </si>
+  <si>
+    <t>Responder 21</t>
+  </si>
+  <si>
+    <t>Responder 22</t>
+  </si>
+  <si>
+    <t>Responder 23</t>
+  </si>
+  <si>
+    <t>Responder 24</t>
+  </si>
+  <si>
+    <t>Responder 25</t>
+  </si>
+  <si>
+    <t>Responder 26</t>
+  </si>
+  <si>
+    <t>Responder 27</t>
+  </si>
+  <si>
+    <t>Responder 28</t>
+  </si>
+  <si>
+    <t>Responder 29</t>
+  </si>
+  <si>
+    <t>Responder 30</t>
+  </si>
+  <si>
+    <t>Responder 31</t>
+  </si>
+  <si>
+    <t>Responder 32</t>
+  </si>
+  <si>
+    <t>Responder 33</t>
+  </si>
+  <si>
+    <t>Responder 34</t>
+  </si>
+  <si>
+    <t>Responder 35</t>
+  </si>
+  <si>
+    <t>Responder 36</t>
+  </si>
+  <si>
+    <t>Responder 37</t>
+  </si>
+  <si>
+    <t>Responder 38</t>
+  </si>
+  <si>
+    <t>Responder 39</t>
+  </si>
+  <si>
+    <t>Responder 40</t>
+  </si>
+  <si>
+    <t>Responder 41</t>
+  </si>
+  <si>
+    <t>Responder 42</t>
+  </si>
+  <si>
+    <t>Responder 43</t>
+  </si>
+  <si>
+    <t>Responder 44</t>
+  </si>
+  <si>
+    <t>Responder 45</t>
+  </si>
+  <si>
+    <t>Responder 46</t>
+  </si>
+  <si>
+    <t>Responder 47</t>
+  </si>
+  <si>
+    <t>Responder 48</t>
+  </si>
+  <si>
+    <t>Responder 49</t>
+  </si>
+  <si>
+    <t>Responder 50</t>
+  </si>
+  <si>
+    <t>Responder 51</t>
+  </si>
+  <si>
+    <t>Responder 52</t>
+  </si>
+  <si>
+    <t>Responder 53</t>
+  </si>
+  <si>
+    <t>Responder 54</t>
+  </si>
+  <si>
+    <t>Responder 55</t>
+  </si>
+  <si>
+    <t>Responder 56</t>
+  </si>
+  <si>
+    <t>Responder 57</t>
+  </si>
+  <si>
+    <t>Responder 58</t>
+  </si>
+  <si>
+    <t>Responder 59</t>
+  </si>
+  <si>
+    <t>Responder 60</t>
+  </si>
+  <si>
+    <t>Responder 61</t>
+  </si>
+  <si>
+    <t>Responder 62</t>
+  </si>
+  <si>
+    <t>Responder 63</t>
+  </si>
+  <si>
+    <t>Responder 64</t>
+  </si>
+  <si>
+    <t>Responder 65</t>
+  </si>
+  <si>
+    <t>Responder 66</t>
+  </si>
+  <si>
+    <t>Responder 67</t>
+  </si>
+  <si>
+    <t>Responder 68</t>
+  </si>
+  <si>
+    <t>Responder 69</t>
+  </si>
+  <si>
+    <t>Responder 70</t>
+  </si>
+  <si>
+    <t>Responder 71</t>
+  </si>
+  <si>
+    <t>Responder 72</t>
+  </si>
+  <si>
+    <t>Responder 73</t>
+  </si>
+  <si>
+    <t>Responder 74</t>
+  </si>
+  <si>
+    <t>Responder 75</t>
+  </si>
+  <si>
+    <t>Responder 76</t>
+  </si>
+  <si>
+    <t>Responder 77</t>
+  </si>
+  <si>
+    <t>Responder 78</t>
+  </si>
+  <si>
+    <t>Responder 79</t>
+  </si>
+  <si>
+    <t>Responder 80</t>
+  </si>
+  <si>
+    <t>Responder 81</t>
+  </si>
+  <si>
+    <t>Responder 82</t>
+  </si>
+  <si>
+    <t>Responder 83</t>
+  </si>
+  <si>
+    <t>Responder 84</t>
+  </si>
+  <si>
+    <t>Responder 85</t>
+  </si>
+  <si>
+    <t>Responder 86</t>
+  </si>
+  <si>
+    <t>Responder 87</t>
+  </si>
+  <si>
+    <t>Responder 88</t>
+  </si>
+  <si>
+    <t>Responder 89</t>
+  </si>
+  <si>
+    <t>Responder 90</t>
+  </si>
+  <si>
+    <t>Responder 91</t>
+  </si>
+  <si>
+    <t>Responder 92</t>
+  </si>
+  <si>
+    <t>Responder 93</t>
+  </si>
+  <si>
+    <t>Responder 94</t>
+  </si>
+  <si>
+    <t>Responder 95</t>
+  </si>
+  <si>
+    <t>Responder 96</t>
+  </si>
+  <si>
+    <t>Responder 97</t>
+  </si>
+  <si>
+    <t>Responder 98</t>
+  </si>
+  <si>
+    <t>Responder 99</t>
+  </si>
+  <si>
+    <t>Responder 100</t>
+  </si>
+  <si>
+    <t>Most Functional Vote</t>
+  </si>
+  <si>
+    <t>Easiest to Use Vote</t>
+  </si>
+  <si>
+    <t>Best Overall Vote</t>
+  </si>
+  <si>
+    <t>Average # of Tasks Completed in 30 Minutes:</t>
+  </si>
+  <si>
+    <t>Most Functional # of votes:</t>
+  </si>
+  <si>
+    <t>Easiest to Use # of votes:</t>
+  </si>
+  <si>
+    <t>Best Overall # of votes:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,13 +387,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -375,8 +420,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +476,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Survey Results</a:t>
+              <a:t>VCS Tool vs. Average Tasks Completed</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in 30 Minutes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -485,7 +537,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$1:$H$1</c:f>
+              <c:f>Sheet1!$H$2:$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -502,7 +554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$H$2</c:f>
+              <c:f>Sheet1!$H$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -806,7 +858,1368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Most</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Functional Votes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$6:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Git</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GitKraken</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GitUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38AE-40FC-A075-D719EB655250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="520339304"/>
+        <c:axId val="520339632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="520339304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VCS Tool</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520339632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="520339632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Votes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520339304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Easiest to Use Votes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Git</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GitKraken</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GitUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AEC-4805-A0C3-EB17AD375891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="520336352"/>
+        <c:axId val="520337336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="520336352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VCS Tool</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520337336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="520337336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Votes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520336352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Best Overall Votes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$H$14:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Git</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GitKraken</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GitUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-956C-45D8-A987-505138B6F797}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="400859848"/>
+        <c:axId val="400862144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="400859848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VCS Tool</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400862144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400862144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Votes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400859848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1349,20 +2762,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149542</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>174307</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132397</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1382,6 +4304,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>130492</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427672</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132397</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AD1540-7133-469C-BD20-8C9F048DBFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1039177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574357</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CA4235-8230-43CE-8791-1EDD3F916F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136207</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>446722</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBFD733-8305-4C4E-85A4-1F691C185F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1687,554 +4717,656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6166FB27-E96C-40AA-B58A-7FBDE994DEC3}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="22.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="e">
+        <f xml:space="preserve"> AVERAGE(B2:B101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" t="e">
+        <f xml:space="preserve"> AVERAGE(C2:C101)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f xml:space="preserve"> AVERAGE(D2:D101)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <f xml:space="preserve"> SUM(B2:B100)</f>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <f>COUNTIF(E2:E101,"Git")</f>
         <v>0</v>
       </c>
-      <c r="G2">
-        <f xml:space="preserve"> SUM(C2:C100)</f>
+      <c r="I7">
+        <f>COUNTIF(E2:E101,"GitKraken")</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <f xml:space="preserve"> SUM(D2:D100)</f>
+      <c r="J7">
+        <f>COUNTIF(E2:E101,"GitUp")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1">
+        <f>COUNTIF(F2:F101,"Git")</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIF(F2:F101,"GitKraken")</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIF(F2:F101,"GitUp")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1">
+        <f>COUNTIF(G2:G101,"Git")</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIF(G2:G101,"GitKraken")</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF(G2:G101,"GitUp")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/Survey Data Analysis.xlsx
+++ b/data/Survey Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamden Chew\Desktop\School Work\Senior Year\Quarter 2\CSE 403\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960FBF7-1ED0-47EA-A840-4A0690C7F607}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092056F-8CFA-489C-B81E-929A176D7FAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77A3A7D4-3AA6-4712-8ED6-7E459DD1EF7A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>Responses:</t>
   </si>
@@ -559,13 +559,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,10 +976,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1391,10 +1391,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,10 +1803,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4720,7 +4720,7 @@
   <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4769,6 +4769,24 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
@@ -4783,23 +4801,59 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="e">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
         <f xml:space="preserve"> AVERAGE(B2:B101)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" t="e">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <f xml:space="preserve"> AVERAGE(C2:C101)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <f xml:space="preserve"> AVERAGE(D2:D101)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -4831,11 +4885,11 @@
       </c>
       <c r="H7" s="1">
         <f>COUNTIF(E2:E101,"Git")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <f>COUNTIF(E2:E101,"GitKraken")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f>COUNTIF(E2:E101,"GitUp")</f>
@@ -4881,11 +4935,11 @@
       </c>
       <c r="I11">
         <f>COUNTIF(F2:F101,"GitKraken")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f>COUNTIF(F2:F101,"GitUp")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4927,11 +4981,11 @@
       </c>
       <c r="I15">
         <f>COUNTIF(G2:G101,"GitKraken")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f>COUNTIF(G2:G101,"GitUp")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/Survey Data Analysis.xlsx
+++ b/data/Survey Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamden Chew\Desktop\School Work\Senior Year\Quarter 2\CSE 403\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6092056F-8CFA-489C-B81E-929A176D7FAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5893C894-F290-4C25-BE12-DD9949551BE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77A3A7D4-3AA6-4712-8ED6-7E459DD1EF7A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25228B89-A85B-40C4-A96D-DC845D859555}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,29 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>Responses:</t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>GitKraken</t>
-  </si>
-  <si>
-    <t>GitUp</t>
-  </si>
-  <si>
-    <t>Git Tasks Completed</t>
-  </si>
-  <si>
-    <t>GitKraken Tasks Compelted</t>
-  </si>
-  <si>
-    <t>GitUp Tasks Completed</t>
-  </si>
-  <si>
     <t>Responder 1</t>
   </si>
   <si>
@@ -354,44 +336,68 @@
     <t>Responder 100</t>
   </si>
   <si>
-    <t>Most Functional Vote</t>
-  </si>
-  <si>
-    <t>Easiest to Use Vote</t>
-  </si>
-  <si>
-    <t>Best Overall Vote</t>
-  </si>
-  <si>
-    <t>Average # of Tasks Completed in 30 Minutes:</t>
-  </si>
-  <si>
-    <t>Most Functional # of votes:</t>
-  </si>
-  <si>
-    <t>Easiest to Use # of votes:</t>
-  </si>
-  <si>
-    <t>Best Overall # of votes:</t>
+    <t>Setting up GitUp Time Spent</t>
+  </si>
+  <si>
+    <t>Adding a Local Project to GitUp Time Spent</t>
+  </si>
+  <si>
+    <t>Adding a Remote Project to Local Time Spent</t>
+  </si>
+  <si>
+    <t>Viewing and Comparing Past Versions of Files Time Spent</t>
+  </si>
+  <si>
+    <t>Revert Files Time Spent</t>
+  </si>
+  <si>
+    <t>Task 1 Completed?</t>
+  </si>
+  <si>
+    <t>Task 2 Completed?</t>
+  </si>
+  <si>
+    <t>Task 3 Completed?</t>
+  </si>
+  <si>
+    <t>Task 4 Completed?</t>
+  </si>
+  <si>
+    <t>Task 5 Completed?</t>
+  </si>
+  <si>
+    <t>Set up GitUp</t>
+  </si>
+  <si>
+    <t>Add Local Project</t>
+  </si>
+  <si>
+    <t>Add Remote Project</t>
+  </si>
+  <si>
+    <t>View and Compare</t>
+  </si>
+  <si>
+    <t>Revert</t>
+  </si>
+  <si>
+    <t>Tester Success Rate (30 min limit)</t>
+  </si>
+  <si>
+    <t>Average Task Completion Times</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -420,9 +426,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,11 +481,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>VCS Tool vs. Average Tasks Completed</a:t>
+              <a:t>Tester</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> in 30 Minutes</a:t>
+              <a:t> Success Rate (30 min limit)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -537,27 +542,33 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$2:$J$2</c:f>
+              <c:f>Sheet1!$L$2:$P$2</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Git</c:v>
+                  <c:v>Set up GitUp</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GitKraken</c:v>
+                  <c:v>Add Local Project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GitUp</c:v>
+                  <c:v>Add Remote Project</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>View and Compare</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Revert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$J$3</c:f>
+              <c:f>Sheet1!$L$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -565,14 +576,20 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3C67-41E2-BF96-64126FCFA0F3}"/>
+              <c16:uniqueId val="{00000000-C7D3-403A-B346-CBFC52AD1D57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,11 +603,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488597568"/>
-        <c:axId val="488597896"/>
+        <c:axId val="337758208"/>
+        <c:axId val="337757224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488597568"/>
+        <c:axId val="337758208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +634,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>VCS Tool</a:t>
+                  <a:t>Task</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -652,7 +669,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -688,7 +705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488597896"/>
+        <c:crossAx val="337757224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488597896"/>
+        <c:axId val="337757224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,8 +754,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Responses</a:t>
+                  <a:t>Number of Testers that</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Complated</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -772,7 +794,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -802,7 +824,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488597568"/>
+        <c:crossAx val="337758208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -893,11 +915,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Most</a:t>
+              <a:t>Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Functional Votes</a:t>
+              <a:t> Task Completion Time vs. Task</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -954,42 +976,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$6:$J$6</c:f>
+              <c:f>Sheet1!$L$6:$P$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Git</c:v>
+                  <c:v>Set up GitUp</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GitKraken</c:v>
+                  <c:v>Add Local Project</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GitUp</c:v>
+                  <c:v>Add Remote Project</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>View and Compare</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Revert</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$J$7</c:f>
+              <c:f>Sheet1!$L$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>14.666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>12.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-38AE-40FC-A075-D719EB655250}"/>
+              <c16:uniqueId val="{00000000-3273-4471-826A-21760FC72223}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1003,11 +1037,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="520339304"/>
-        <c:axId val="520339632"/>
+        <c:axId val="387255280"/>
+        <c:axId val="387252984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="520339304"/>
+        <c:axId val="387255280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1068,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>VCS Tool</a:t>
+                  <a:t>Task</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1105,7 +1139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520339632"/>
+        <c:crossAx val="387252984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520339632"/>
+        <c:axId val="387252984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1188,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Votes</a:t>
+                  <a:t>Average Task Completion Time</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1219,831 +1253,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520339304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Easiest to Use Votes</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$10:$J$10</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Git</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GitKraken</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GitUp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$11:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AEC-4805-A0C3-EB17AD375891}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="520336352"/>
-        <c:axId val="520337336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="520336352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>VCS Tool</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="520337336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="520337336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Votes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="520336352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Best Overall Votes</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$H$14:$J$14</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Git</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GitKraken</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GitUp</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$15:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-956C-45D8-A987-505138B6F797}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="400859848"/>
-        <c:axId val="400862144"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="400859848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>VCS Tool</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="400862144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="400862144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Votes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="400859848"/>
+        <c:crossAx val="387255280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,86 +1389,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2763,1012 +1893,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4276,22 +2400,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115252</xdr:rowOff>
+      <xdr:colOff>120015</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1125855</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>132397</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A7AB77-0568-44DA-B6F7-651BAA04D41F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E685B6-CC2D-47D0-ACF2-F0CF936776B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4311,23 +2435,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>130492</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107632</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>427672</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>132397</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159067</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7AD1540-7133-469C-BD20-8C9F048DBFB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8C797F-8066-4B5F-8546-C3F79495B4C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4340,78 +2464,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1039177</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>67627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>574357</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>92392</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76CA4235-8230-43CE-8791-1EDD3F916F24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>136207</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>103822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>446722</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>130492</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBFD733-8305-4C4E-85A4-1F691C185F0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4716,706 +2768,727 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6166FB27-E96C-40AA-B58A-7FBDE994DEC3}">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA4FE06-63CB-4DDA-81E7-7425C4B35C44}">
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>SUM(G2:G101)</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>SUM(H2:H101)</f>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <f>SUM(I2:I101)</f>
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <f>SUM(J2:J101)</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f>SUM(K2:K101)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="L7">
+        <f>AVERAGE(B2:B101)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(C2:C101)</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(D2:D101)</f>
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(E2:E101)</f>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE(F2:F101)</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <f xml:space="preserve"> AVERAGE(B2:B101)</f>
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <f xml:space="preserve"> AVERAGE(C2:C101)</f>
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <f xml:space="preserve"> AVERAGE(D2:D101)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
-        <f>COUNTIF(E2:E101,"Git")</f>
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <f>COUNTIF(E2:E101,"GitKraken")</f>
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f>COUNTIF(E2:E101,"GitUp")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1">
-        <f>COUNTIF(F2:F101,"Git")</f>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f>COUNTIF(F2:F101,"GitKraken")</f>
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <f>COUNTIF(F2:F101,"GitUp")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1">
-        <f>COUNTIF(G2:G101,"Git")</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f>COUNTIF(G2:G101,"GitKraken")</f>
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <f>COUNTIF(G2:G101,"GitUp")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/Survey Data Analysis.xlsx
+++ b/data/Survey Data Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamden Chew\Desktop\School Work\Senior Year\Quarter 2\CSE 403\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5893C894-F290-4C25-BE12-DD9949551BE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF12E78-D5CF-4DD0-B9C2-3DA2C77C4302}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25228B89-A85B-40C4-A96D-DC845D859555}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
   <si>
     <t>Responses:</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>Average Task Completion Times</t>
+  </si>
+  <si>
+    <t>Number of Tester Successes</t>
   </si>
 </sst>
 </file>
@@ -570,19 +573,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,19 +1007,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.666666666666666</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.333333333333334</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.333333333333332</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,6 +1312,325 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of User Successes (Out of 1 User)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$10:$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Set up GitUp</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add Local Project</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Add Remote Project</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>View and Compare</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Revert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0724-42B3-ABA0-D705D5DF9988}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="392311432"/>
+        <c:axId val="392317336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="392311432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392317336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="392317336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392311432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1389,6 +1711,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1893,6 +2255,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2400,15 +3265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>120015</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107632</xdr:rowOff>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1125855</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>132397</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21907</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2435,16 +3300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>134302</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>272415</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>159067</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1386840</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27622</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2464,6 +3329,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>170497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CBE0AB-B8B9-4041-B972-465FD94ACB2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2771,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA4FE06-63CB-4DDA-81E7-7425C4B35C44}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2833,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2860,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>111</v>
@@ -2882,91 +3783,31 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
         <f>SUM(G2:G101)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f>SUM(H2:H101)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f>SUM(I2:I101)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <f>SUM(J2:J101)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f>SUM(K2:K101)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3002,23 +3843,23 @@
       </c>
       <c r="L7">
         <f>AVERAGE(B2:B101)</f>
-        <v>14.666666666666666</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <f>AVERAGE(C2:C101)</f>
-        <v>12.333333333333334</v>
+        <v>5</v>
       </c>
       <c r="N7">
         <f>AVERAGE(D2:D101)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <f>AVERAGE(E2:E101)</f>
-        <v>25.333333333333332</v>
+        <v>30</v>
       </c>
       <c r="P7">
         <f>AVERAGE(F2:F101)</f>
-        <v>5.333333333333333</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -3030,15 +3871,53 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIF(B2:B101, "&lt; 30")</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f>COUNTIF(C2:C101, "&lt; 30")</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>COUNTIF(D2:D101, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>COUNTIF(E2:E101, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIF(F2:F101, "&lt; 30")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">

--- a/data/Survey Data Analysis.xlsx
+++ b/data/Survey Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamden Chew\Desktop\School Work\Senior Year\Quarter 2\CSE 403\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF12E78-D5CF-4DD0-B9C2-3DA2C77C4302}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C55107-13C2-4319-9E3F-8D70313EFFA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25228B89-A85B-40C4-A96D-DC845D859555}"/>
   </bookViews>
@@ -381,13 +381,13 @@
     <t>Revert</t>
   </si>
   <si>
-    <t>Tester Success Rate (30 min limit)</t>
-  </si>
-  <si>
     <t>Average Task Completion Times</t>
   </si>
   <si>
     <t>Number of Tester Successes</t>
+  </si>
+  <si>
+    <t>Tester Success Rate (30 minute limit)</t>
   </si>
 </sst>
 </file>
@@ -484,11 +484,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tester</a:t>
+              <a:t>Number</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Success Rate (30 min limit)</a:t>
+              <a:t> of User Successes (Out of 1 User)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -579,7 +579,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -757,13 +757,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Testers that</a:t>
+                  <a:t>Number of Users</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Complated</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1013,13 +1008,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,13 +1342,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Number</a:t>
+              <a:t>Tester Success Rate (30 Min.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of User Successes (Out of 1 User)</a:t>
+              <a:t> Limit</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1479,6 +1477,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Task</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1544,6 +1597,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Proportion of Total Users Tests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3337,15 +3445,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>1125855</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>170497</xdr:rowOff>
+      <xdr:rowOff>159067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>20002</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3672,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA4FE06-63CB-4DDA-81E7-7425C4B35C44}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="B3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3726,7 +3834,7 @@
         <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -3749,18 +3857,23 @@
         <v>30</v>
       </c>
       <c r="G2">
+        <f t="shared" ref="G2:I2" si="0">COUNTIF(B2, "&lt; 30")</f>
         <v>1</v>
       </c>
       <c r="H2">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J2">
+        <f>COUNTIF(E2, "&lt; 30")</f>
         <v>0</v>
       </c>
       <c r="K2">
+        <f>COUNTIF(F2, "&lt; 30")</f>
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -3783,6 +3896,26 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3" si="1">COUNTIF(B3, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3" si="2">COUNTIF(C3, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3" si="3">COUNTIF(D3, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(E3, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(F3, "&lt; 30")</f>
+        <v>0</v>
+      </c>
       <c r="L3">
         <f>SUM(G2:G101)</f>
         <v>1</v>
@@ -3793,7 +3926,7 @@
       </c>
       <c r="N3">
         <f>SUM(I2:I101)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <f>SUM(J2:J101)</f>
@@ -3808,19 +3941,79 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="4">COUNTIF(B4, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="5">COUNTIF(C4, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="6">COUNTIF(D4, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J67" si="7">COUNTIF(E4, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K67" si="8">COUNTIF(F4, "&lt; 30")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="1" t="s">
         <v>111</v>
       </c>
@@ -3841,36 +4034,96 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L7">
-        <f>AVERAGE(B2:B101)</f>
+        <f>IFERROR(AVERAGEIF(B2:B101,"&lt;30"), 0)</f>
         <v>9</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(C2:C101)</f>
+        <f>IFERROR(AVERAGEIF(C2:C101,"&lt;30"), 0)</f>
         <v>5</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(D2:D101)</f>
-        <v>30</v>
+        <f>IFERROR(AVERAGEIF(D2:D101,"&lt;30"), 0)</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <f>AVERAGE(E2:E101)</f>
-        <v>30</v>
+        <f>IFERROR(AVERAGEIF(E2:E101,"&lt;30"), 0)</f>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f>AVERAGE(F2:F101)</f>
-        <v>30</v>
+        <f>IFERROR(AVERAGEIF(F2:F101,"&lt;30"), 0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L9" t="s">
         <v>118</v>
       </c>
@@ -3879,6 +4132,26 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="1" t="s">
         <v>111</v>
       </c>
@@ -3899,24 +4172,44 @@
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="L11">
-        <f>COUNTIF(B2:B101, "&lt; 30")</f>
+        <f>IFERROR(L3 / COUNT(B2:B101),0)</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f>COUNTIF(C2:C101, "&lt; 30")</f>
+        <f>IFERROR(M3 / COUNT(C2:C101),0)</f>
         <v>1</v>
       </c>
       <c r="N11">
-        <f>COUNTIF(D2:D101, "&lt; 30")</f>
+        <f t="shared" ref="N11:P11" si="9">IFERROR(N3 / COUNT(D2:D101),0)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>COUNTIF(E2:E101, "&lt; 30")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>COUNTIF(F2:F101, "&lt; 30")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -3924,450 +4217,2250 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <f t="shared" ref="G68:G101" si="10">COUNTIF(B68, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H101" si="11">COUNTIF(C68, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I101" si="12">COUNTIF(D68, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J101" si="13">COUNTIF(E68, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K101" si="14">COUNTIF(F68, "&lt; 30")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Survey Data Analysis.xlsx
+++ b/data/Survey Data Analysis.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamden Chew\Desktop\School Work\Senior Year\Quarter 2\CSE 403\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C55107-13C2-4319-9E3F-8D70313EFFA5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B36BD1-4CFB-44B2-87DD-C39F01B8A77F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25228B89-A85B-40C4-A96D-DC845D859555}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="106">
   <si>
     <t>Responses:</t>
   </si>
@@ -349,45 +349,6 @@
   </si>
   <si>
     <t>Revert Files Time Spent</t>
-  </si>
-  <si>
-    <t>Task 1 Completed?</t>
-  </si>
-  <si>
-    <t>Task 2 Completed?</t>
-  </si>
-  <si>
-    <t>Task 3 Completed?</t>
-  </si>
-  <si>
-    <t>Task 4 Completed?</t>
-  </si>
-  <si>
-    <t>Task 5 Completed?</t>
-  </si>
-  <si>
-    <t>Set up GitUp</t>
-  </si>
-  <si>
-    <t>Add Local Project</t>
-  </si>
-  <si>
-    <t>Add Remote Project</t>
-  </si>
-  <si>
-    <t>View and Compare</t>
-  </si>
-  <si>
-    <t>Revert</t>
-  </si>
-  <si>
-    <t>Average Task Completion Times</t>
-  </si>
-  <si>
-    <t>Number of Tester Successes</t>
-  </si>
-  <si>
-    <t>Tester Success Rate (30 minute limit)</t>
   </si>
 </sst>
 </file>
@@ -403,18 +364,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -429,9 +384,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,14 +437,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number</a:t>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Set Up GitUp vs. Test Iteration</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of User Successes (Out of 1 User)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -526,73 +480,75 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Setting up GitUp Time Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$L$2:$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Set up GitUp</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add Local Project</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Add Remote Project</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>View and Compare</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Revert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$P$3</c:f>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C7D3-403A-B346-CBFC52AD1D57}"/>
+              <c16:uniqueId val="{00000000-2B53-4A00-B85F-4859C2E67820}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -604,13 +560,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="337758208"/>
-        <c:axId val="337757224"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="524092064"/>
+        <c:axId val="524094360"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="337758208"/>
+        <c:axId val="524092064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,7 +593,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Task</a:t>
+                  <a:t>Test Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -671,7 +627,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -708,7 +663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337757224"/>
+        <c:crossAx val="524094360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,9 +671,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337757224"/>
+        <c:axId val="524094360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -757,8 +713,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of Users</a:t>
+                  <a:t>Time taken</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -822,7 +783,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337758208"/>
+        <c:crossAx val="524092064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -912,14 +873,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average</a:t>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Add Local Project vs. Test Iteration</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Task Completion Time vs. Task</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -955,73 +916,75 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adding a Local Project to GitUp Time Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$L$6:$P$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Set up GitUp</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add Local Project</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Add Remote Project</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>View and Compare</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Revert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$7:$P$7</c:f>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3273-4471-826A-21760FC72223}"/>
+              <c16:uniqueId val="{00000000-E30B-4675-9019-FFFA2E23B922}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1033,13 +996,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="387255280"/>
-        <c:axId val="387252984"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="502438968"/>
+        <c:axId val="502440608"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="387255280"/>
+        <c:axId val="502438968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1029,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Task</a:t>
+                  <a:t>Test Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1100,7 +1063,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1137,7 +1099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387252984"/>
+        <c:crossAx val="502440608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1145,9 +1107,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387252984"/>
+        <c:axId val="502440608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1186,8 +1149,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Task Completion Time</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> taken (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1251,7 +1219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387255280"/>
+        <c:crossAx val="502438968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,17 +1309,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Tester Success Rate (30 Min.</a:t>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Add Remote Project vs. Test Iteration</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Limit</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>)</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1387,73 +1352,75 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adding a Remote Project to Local Time Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$L$10:$P$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Set up GitUp</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Add Local Project</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Add Remote Project</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>View and Compare</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Revert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$11:$P$11</c:f>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0724-42B3-ABA0-D705D5DF9988}"/>
+              <c16:uniqueId val="{00000000-BAEF-4B5F-9019-BDCC54449BC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1465,13 +1432,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="392311432"/>
-        <c:axId val="392317336"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="464568784"/>
+        <c:axId val="464570424"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="392311432"/>
+        <c:axId val="464568784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1465,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Task</a:t>
+                  <a:t>Test Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1532,7 +1499,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1569,7 +1535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392317336"/>
+        <c:crossAx val="464570424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1577,9 +1543,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="392317336"/>
+        <c:axId val="464570424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1618,7 +1585,884 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Proportion of Total Users Tests</a:t>
+                  <a:t>Time taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464568784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to View/Compare File Versions vs. Test Iteration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Viewing and Comparing Past Versions of Files Time Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC93-48B2-BB3C-847DA9CE8460}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="515235608"/>
+        <c:axId val="515233968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="515235608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Iteration</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515233968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515233968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Timetaken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515235608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Time to Revert Files vs. Test Iteration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revert Files Time Spent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F79-43D6-A46C-0A097DF30566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="315111112"/>
+        <c:axId val="315111440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="315111112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Test Iteration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315111440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315111440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time taken (Minutes)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1683,7 +2527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392311432"/>
+        <c:crossAx val="315111112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1859,8 +2703,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2363,7 +3287,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2866,7 +3790,1013 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3373,22 +5303,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>172402</xdr:rowOff>
+      <xdr:colOff>46672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>21907</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1058227</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E685B6-CC2D-47D0-ACF2-F0CF936776B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2B1E53-4A0B-4205-9E61-7CF266B3C1DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,23 +5338,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>272415</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180022</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1386840</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>27622</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1053465</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31432</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8C797F-8066-4B5F-8546-C3F79495B4C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BB5BDE6-9D84-4B89-9CD1-0E1A743BF4ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3444,23 +5374,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1125855</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159067</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20002</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>178117</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1025842</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35CBE0AB-B8B9-4041-B972-465FD94ACB2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA09B84-3948-4E4F-ABD4-A3B160C239BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,7 +5408,129 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12382</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>46672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1010602</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73342</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092151FE-914D-4B0B-83CF-D47569EBA6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1580197</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>141922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1001077</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>164782</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5C0E17-77E7-4DFB-9C6A-4C1496428EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6CE07932-9C58-4D29-8F28-3496AF06312B}" name="Table5" displayName="Table5" ref="B1:B6" totalsRowShown="0">
+  <autoFilter ref="B1:B6" xr:uid="{4711628D-D063-4D06-B70C-8CA73219FE08}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{66E6235F-984F-4F6F-830F-EBB463026706}" name="Setting up GitUp Time Spent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4EEE026F-D04E-40A5-9379-12A4C127B656}" name="Table6" displayName="Table6" ref="C1:C6" totalsRowShown="0">
+  <autoFilter ref="C1:C6" xr:uid="{34948997-FB69-46BA-95E1-7273409AAC96}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{095D514E-7711-4F45-924D-378B094C9DC5}" name="Adding a Local Project to GitUp Time Spent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{89BCAA5D-C16B-42B8-9605-4AD43B5B1AF5}" name="Table7" displayName="Table7" ref="D1:D6" totalsRowShown="0">
+  <autoFilter ref="D1:D6" xr:uid="{6F535963-4B15-4DC4-973D-CCDB7357F285}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{88531091-0F69-4956-B17D-AC19F5E94CD5}" name="Adding a Remote Project to Local Time Spent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A7E34599-B241-4A7E-A412-DE930A0B0708}" name="Table8" displayName="Table8" ref="E1:E6" totalsRowShown="0">
+  <autoFilter ref="E1:E6" xr:uid="{537E6626-12F8-4AEF-9AA6-B7337428882F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8F49D35B-4428-4C87-B464-F9764572875F}" name="Viewing and Comparing Past Versions of Files Time Spent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{89EA1D98-07B4-4A83-8C1B-76D33E103EE0}" name="Table9" displayName="Table9" ref="F1:F6" totalsRowShown="0">
+  <autoFilter ref="F1:F6" xr:uid="{2BC0D929-DE85-4F94-9848-33CC67706E26}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{04A90AD5-C280-4528-AF00-A9314B42EE7F}" name="Revert Files Time Spent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3778,28 +5830,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA4FE06-63CB-4DDA-81E7-7425C4B35C44}">
-  <dimension ref="A1:P101"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="B3:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="5" max="5" width="52.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
     <col min="7" max="11" width="17.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" customWidth="1"/>
     <col min="14" max="14" width="18.77734375" customWidth="1"/>
     <col min="15" max="15" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3818,26 +5872,8 @@
       <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3848,7 +5884,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3856,2616 +5892,572 @@
       <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:I2" si="0">COUNTIF(B2, "&lt; 30")</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>COUNTIF(E2, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>COUNTIF(F2, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3" si="1">COUNTIF(B3, "&lt; 30")</f>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3" si="2">COUNTIF(C3, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3" si="3">COUNTIF(D3, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>COUNTIF(E3, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>COUNTIF(F3, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>SUM(G2:G101)</f>
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <f>SUM(H2:H101)</f>
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f>SUM(I2:I101)</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>SUM(J2:J101)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>SUM(K2:K101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G67" si="4">COUNTIF(B4, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H67" si="5">COUNTIF(C4, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I67" si="6">COUNTIF(D4, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J67" si="7">COUNTIF(E4, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K67" si="8">COUNTIF(F4, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>IFERROR(AVERAGEIF(B2:B101,"&lt;30"), 0)</f>
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <f>IFERROR(AVERAGEIF(C2:C101,"&lt;30"), 0)</f>
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <f>IFERROR(AVERAGEIF(D2:D101,"&lt;30"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>IFERROR(AVERAGEIF(E2:E101,"&lt;30"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>IFERROR(AVERAGEIF(F2:F101,"&lt;30"), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>IFERROR(L3 / COUNT(B2:B101),0)</f>
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f>IFERROR(M3 / COUNT(C2:C101),0)</f>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ref="N11:P11" si="9">IFERROR(N3 / COUNT(D2:D101),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G101" si="10">COUNTIF(B68, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <f t="shared" ref="H68:H101" si="11">COUNTIF(C68, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <f t="shared" ref="I68:I101" si="12">COUNTIF(D68, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <f t="shared" ref="J68:J101" si="13">COUNTIF(E68, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <f t="shared" ref="K68:K101" si="14">COUNTIF(F68, "&lt; 30")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I93">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="G94">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <f t="shared" si="14"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="5">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>